--- a/Curves/sedan_DecelCurve.xlsx
+++ b/Curves/sedan_DecelCurve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\codex\z\VDSS---Vehicle-Dynamics-Safety-Simulator\Curves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A4F4E4-8E37-4F88-8118-F1997DC3D960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA390764-CA71-49ED-A7FC-D451C1E2927F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24972" yWindow="3996" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="92955" yWindow="990" windowWidth="21600" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,49 +249,49 @@
                   <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.7142381974524028</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.50402140868506118</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.29131557566119431</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.6232058097430055E-2</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14112840605216051</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.36067420323034183</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.58232161976778496</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.80599383027617133</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0316200542155289</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2591348467896959</c:v>
+                  <c:v>-1.2591348467896999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4884774982257949</c:v>
+                  <c:v>-1.48847749822579</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7195915213157591</c:v>
+                  <c:v>-1.71959152131576</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.952424211444941</c:v>
+                  <c:v>-1.9524242114449399</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.186926266618189</c:v>
+                  <c:v>-2.1869262666181899</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.4230514575044588</c:v>
+                  <c:v>-2.4230514575044602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,13 +1347,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1369,7 +1367,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1377,7 +1375,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1393,7 +1391,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1401,7 +1399,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1409,7 +1407,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1417,7 +1415,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1425,7 +1423,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1433,7 +1431,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1441,7 +1439,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1449,7 +1447,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1457,7 +1455,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1465,7 +1463,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1473,7 +1471,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1481,7 +1479,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1489,124 +1487,124 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.7142381974524028</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.50402140868506118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.29131557566119431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-7.6232058097430055E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.14112840605216051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.36067420323034183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.58232161976778496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.80599383027617133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.0316200542155289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.03162005421553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.2591348467896959</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.2591348467896999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.4884774982257949</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.48847749822579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.7195915213157591</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.71959152131576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.952424211444941</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.9524242114449399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.186926266618189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.1869262666181899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.4230514575044588</v>
+        <v>-2.4230514575044602</v>
       </c>
     </row>
   </sheetData>

--- a/Curves/sedan_DecelCurve.xlsx
+++ b/Curves/sedan_DecelCurve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\codex\z\VDSS---Vehicle-Dynamics-Safety-Simulator\Curves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA390764-CA71-49ED-A7FC-D451C1E2927F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBE936B-2E6D-47E9-9C51-2025D02ABA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="92955" yWindow="990" windowWidth="21600" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="86303" yWindow="-98" windowWidth="28995" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,102 +196,81 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$32</c:f>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-0.8</c:v>
+                  <c:v>-2.4230514575044602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.8</c:v>
+                  <c:v>-2.1869262666181899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.9524242114449399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.71959152131576</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.48847749822579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.2591348467896999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.03162005421553</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.2591348467896999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.48847749822579</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1.71959152131576</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.9524242114449399</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.1869262666181899</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2.4230514575044602</c:v>
+                  <c:v>-1.03162005421553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.8</v>
+        <v>-2.4230514575044602</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -1372,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.8</v>
+        <v>-2.1869262666181899</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -1380,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.8</v>
+        <v>-1.9524242114449399</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -1388,7 +1367,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.8</v>
+        <v>-1.71959152131576</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -1396,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.8</v>
+        <v>-1.48847749822579</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -1404,7 +1383,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.8</v>
+        <v>-1.2591348467896999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -1412,7 +1391,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -1420,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -1428,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -1436,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -1444,7 +1423,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -1452,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -1460,7 +1439,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -1468,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -1476,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -1484,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -1492,7 +1471,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -1500,7 +1479,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -1508,7 +1487,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -1516,7 +1495,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -1524,7 +1503,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -1532,7 +1511,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -1540,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -1548,7 +1527,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.8</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -1564,7 +1543,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-1.2591348467896999</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -1572,7 +1551,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-1.48847749822579</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -1580,7 +1559,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.71959152131576</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -1588,7 +1567,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-1.9524242114449399</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -1596,7 +1575,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-2.1869262666181899</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -1604,7 +1583,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-2.4230514575044602</v>
+        <v>-1.03162005421553</v>
       </c>
     </row>
   </sheetData>
